--- a/Data Files/Preferred Procedure.xlsx
+++ b/Data Files/Preferred Procedure.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CBFB01-CEA9-42C3-9169-7B79254A9C67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF12CAB-B504-4A53-A572-4A8A59798BE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Summary of Hearing</t>
   </si>
   <si>
     <t>Automation test for hearing summary</t>
+  </si>
+  <si>
+    <t>Summury of Inquiry</t>
+  </si>
+  <si>
+    <t>Automation test for inquiry summary</t>
   </si>
 </sst>
 </file>
@@ -357,13 +363,12 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
@@ -376,10 +381,16 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
       <c r="I2" s="1"/>
     </row>

--- a/Data Files/Preferred Procedure.xlsx
+++ b/Data Files/Preferred Procedure.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF12CAB-B504-4A53-A572-4A8A59798BE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09117421-4DD7-468F-B720-89CD23CAE436}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -363,12 +363,13 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
